--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna2-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna2-Epha3.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.573649333333333</v>
+      </c>
+      <c r="H2">
+        <v>4.720948</v>
+      </c>
+      <c r="I2">
+        <v>0.162950296453897</v>
+      </c>
+      <c r="J2">
+        <v>0.1728167686459121</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>1.186026</v>
-      </c>
-      <c r="H2">
-        <v>3.558078</v>
-      </c>
-      <c r="I2">
-        <v>0.1428187553521992</v>
-      </c>
-      <c r="J2">
-        <v>0.1524379446999992</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N2">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O2">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P2">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q2">
-        <v>0.036165490818</v>
+        <v>0.1686590145986667</v>
       </c>
       <c r="R2">
-        <v>0.325489417362</v>
+        <v>1.517931131388</v>
       </c>
       <c r="S2">
-        <v>0.0001454805797041422</v>
+        <v>0.0005746871344786726</v>
       </c>
       <c r="T2">
-        <v>0.0001556448350304738</v>
+        <v>0.0006134436629093226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.186026</v>
+        <v>1.573649333333333</v>
       </c>
       <c r="H3">
-        <v>3.558078</v>
+        <v>4.720948</v>
       </c>
       <c r="I3">
-        <v>0.1428187553521992</v>
+        <v>0.162950296453897</v>
       </c>
       <c r="J3">
-        <v>0.1524379446999992</v>
+        <v>0.1728167686459121</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O3">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P3">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q3">
-        <v>35.169484368932</v>
+        <v>46.66376254048977</v>
       </c>
       <c r="R3">
-        <v>316.525359320388</v>
+        <v>419.973862864408</v>
       </c>
       <c r="S3">
-        <v>0.1414740090114155</v>
+        <v>0.1590016640509845</v>
       </c>
       <c r="T3">
-        <v>0.1513583382638566</v>
+        <v>0.1697246333739411</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.573649333333333</v>
+      </c>
+      <c r="H4">
+        <v>4.720948</v>
+      </c>
+      <c r="I4">
+        <v>0.162950296453897</v>
+      </c>
+      <c r="J4">
+        <v>0.1728167686459121</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>1.186026</v>
-      </c>
-      <c r="H4">
-        <v>3.558078</v>
-      </c>
-      <c r="I4">
-        <v>0.1428187553521992</v>
-      </c>
-      <c r="J4">
-        <v>0.1524379446999992</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N4">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O4">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P4">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q4">
-        <v>0.250315531404</v>
+        <v>0.06409106549822222</v>
       </c>
       <c r="R4">
-        <v>1.501893188424</v>
+        <v>0.576819589484</v>
       </c>
       <c r="S4">
-        <v>0.001006928090672549</v>
+        <v>0.0002183832916639691</v>
       </c>
       <c r="T4">
-        <v>0.0007181859227259066</v>
+        <v>0.0002331109195233112</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.186026</v>
+        <v>1.573649333333333</v>
       </c>
       <c r="H5">
-        <v>3.558078</v>
+        <v>4.720948</v>
       </c>
       <c r="I5">
-        <v>0.1428187553521992</v>
+        <v>0.162950296453897</v>
       </c>
       <c r="J5">
-        <v>0.1524379446999992</v>
+        <v>0.1728167686459121</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N5">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O5">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P5">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q5">
-        <v>0.047813847506</v>
+        <v>0.9260934194913333</v>
       </c>
       <c r="R5">
-        <v>0.430324627554</v>
+        <v>5.556560516948</v>
       </c>
       <c r="S5">
-        <v>0.0001923376704069576</v>
+        <v>0.003155561976769885</v>
       </c>
       <c r="T5">
-        <v>0.0002057756783861934</v>
+        <v>0.002245580689538289</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>13.179146</v>
       </c>
       <c r="I6">
-        <v>0.5290016768392695</v>
+        <v>0.4548971409363525</v>
       </c>
       <c r="J6">
-        <v>0.5646312220084034</v>
+        <v>0.4824406931050072</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N6">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O6">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P6">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q6">
-        <v>0.1339572329926667</v>
+        <v>0.4708337769473334</v>
       </c>
       <c r="R6">
-        <v>1.205615096934</v>
+        <v>4.237503992526</v>
       </c>
       <c r="S6">
-        <v>0.0005388610930073841</v>
+        <v>0.001604314567670744</v>
       </c>
       <c r="T6">
-        <v>0.0005765095664042576</v>
+        <v>0.001712508503854893</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>13.179146</v>
       </c>
       <c r="I7">
-        <v>0.5290016768392695</v>
+        <v>0.4548971409363525</v>
       </c>
       <c r="J7">
-        <v>0.5646312220084034</v>
+        <v>0.4824406931050072</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O7">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P7">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q7">
         <v>130.2680180824796</v>
@@ -886,10 +886,10 @@
         <v>1172.412162742316</v>
       </c>
       <c r="S7">
-        <v>0.5240207269112034</v>
+        <v>0.443874015297537</v>
       </c>
       <c r="T7">
-        <v>0.5606323521566288</v>
+        <v>0.4738085916285549</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>13.179146</v>
       </c>
       <c r="I8">
-        <v>0.5290016768392695</v>
+        <v>0.4548971409363525</v>
       </c>
       <c r="J8">
-        <v>0.5646312220084034</v>
+        <v>0.4824406931050072</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N8">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O8">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P8">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q8">
-        <v>0.9271704932946667</v>
+        <v>0.1789186217464445</v>
       </c>
       <c r="R8">
-        <v>5.563022959768</v>
+        <v>1.610267595718</v>
       </c>
       <c r="S8">
-        <v>0.003729668747698831</v>
+        <v>0.000609645623040125</v>
       </c>
       <c r="T8">
-        <v>0.002660165721704089</v>
+        <v>0.0006507597293153766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>13.179146</v>
       </c>
       <c r="I9">
-        <v>0.5290016768392695</v>
+        <v>0.4548971409363525</v>
       </c>
       <c r="J9">
-        <v>0.5646312220084034</v>
+        <v>0.4824406931050072</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N9">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O9">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P9">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q9">
-        <v>0.1771028282975556</v>
+        <v>2.585311336857667</v>
       </c>
       <c r="R9">
-        <v>1.593925454678</v>
+        <v>15.511868021146</v>
       </c>
       <c r="S9">
-        <v>0.0007124200873598538</v>
+        <v>0.00880916544810469</v>
       </c>
       <c r="T9">
-        <v>0.0007621945636663074</v>
+        <v>0.006268833243282024</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.785643</v>
+        <v>1.149467</v>
       </c>
       <c r="H10">
-        <v>2.356929</v>
+        <v>3.448401</v>
       </c>
       <c r="I10">
-        <v>0.09460547695511548</v>
+        <v>0.11902651019285</v>
       </c>
       <c r="J10">
-        <v>0.1009773851399054</v>
+        <v>0.1262334424813261</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N10">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O10">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P10">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q10">
-        <v>0.023956611999</v>
+        <v>0.123196424659</v>
       </c>
       <c r="R10">
-        <v>0.215609507991</v>
+        <v>1.108767821931</v>
       </c>
       <c r="S10">
-        <v>9.63687128954183E-05</v>
+        <v>0.0004197783346106309</v>
       </c>
       <c r="T10">
-        <v>0.0001031016816898167</v>
+        <v>0.000448087913830055</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.785643</v>
+        <v>1.149467</v>
       </c>
       <c r="H11">
-        <v>2.356929</v>
+        <v>3.448401</v>
       </c>
       <c r="I11">
-        <v>0.09460547695511548</v>
+        <v>0.11902651019285</v>
       </c>
       <c r="J11">
-        <v>0.1009773851399054</v>
+        <v>0.1262334424813261</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O11">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P11">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q11">
-        <v>23.296841054126</v>
+        <v>34.08539246956066</v>
       </c>
       <c r="R11">
-        <v>209.671569487134</v>
+        <v>306.7685322260459</v>
       </c>
       <c r="S11">
-        <v>0.09371469500816634</v>
+        <v>0.11614224459051</v>
       </c>
       <c r="T11">
-        <v>0.100262236197715</v>
+        <v>0.1239748024022573</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.785643</v>
+        <v>1.149467</v>
       </c>
       <c r="H12">
-        <v>2.356929</v>
+        <v>3.448401</v>
       </c>
       <c r="I12">
-        <v>0.09460547695511548</v>
+        <v>0.11902651019285</v>
       </c>
       <c r="J12">
-        <v>0.1009773851399054</v>
+        <v>0.1262334424813261</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N12">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O12">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P12">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q12">
-        <v>0.165813097722</v>
+        <v>0.04681510882033333</v>
       </c>
       <c r="R12">
-        <v>0.994878586332</v>
+        <v>0.4213359793829999</v>
       </c>
       <c r="S12">
-        <v>0.0006670056187134628</v>
+        <v>0.0001595173599364625</v>
       </c>
       <c r="T12">
-        <v>0.0004757380891212752</v>
+        <v>0.0001702751074561943</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.785643</v>
+        <v>1.149467</v>
       </c>
       <c r="H13">
-        <v>2.356929</v>
+        <v>3.448401</v>
       </c>
       <c r="I13">
-        <v>0.09460547695511548</v>
+        <v>0.11902651019285</v>
       </c>
       <c r="J13">
-        <v>0.1009773851399054</v>
+        <v>0.1262334424813261</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N13">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O13">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P13">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q13">
-        <v>0.031672673783</v>
+        <v>0.6764619042334998</v>
       </c>
       <c r="R13">
-        <v>0.285054064047</v>
+        <v>4.058771425400999</v>
       </c>
       <c r="S13">
-        <v>0.0001274076153402484</v>
+        <v>0.002304969907792937</v>
       </c>
       <c r="T13">
-        <v>0.0001363091713793493</v>
+        <v>0.001640277057782573</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.5720835</v>
+        <v>1.6540555</v>
       </c>
       <c r="H14">
-        <v>3.144167</v>
+        <v>3.308111</v>
       </c>
       <c r="I14">
-        <v>0.1893069871821773</v>
+        <v>0.1712762992154535</v>
       </c>
       <c r="J14">
-        <v>0.1347048477502636</v>
+        <v>0.1210979348516435</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N14">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O14">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P14">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q14">
-        <v>0.0479375421655</v>
+        <v>0.1772767063235</v>
       </c>
       <c r="R14">
-        <v>0.287625252993</v>
+        <v>1.063660237941</v>
       </c>
       <c r="S14">
-        <v>0.0001928352489096503</v>
+        <v>0.0006040509759249761</v>
       </c>
       <c r="T14">
-        <v>0.0001375386807212376</v>
+        <v>0.0004298585218796357</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.5720835</v>
+        <v>1.6540555</v>
       </c>
       <c r="H15">
-        <v>3.144167</v>
+        <v>3.308111</v>
       </c>
       <c r="I15">
-        <v>0.1893069871821773</v>
+        <v>0.1712762992154535</v>
       </c>
       <c r="J15">
-        <v>0.1347048477502636</v>
+        <v>0.1210979348516435</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O15">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P15">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q15">
-        <v>46.61733054748034</v>
+        <v>49.04806391478434</v>
       </c>
       <c r="R15">
-        <v>279.703983284882</v>
+        <v>294.288383488706</v>
       </c>
       <c r="S15">
-        <v>0.1875245190625649</v>
+        <v>0.1671259100498564</v>
       </c>
       <c r="T15">
-        <v>0.1337508318659837</v>
+        <v>0.1189311821768216</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.5720835</v>
+        <v>1.6540555</v>
       </c>
       <c r="H16">
-        <v>3.144167</v>
+        <v>3.308111</v>
       </c>
       <c r="I16">
-        <v>0.1893069871821773</v>
+        <v>0.1712762992154535</v>
       </c>
       <c r="J16">
-        <v>0.1347048477502636</v>
+        <v>0.1210979348516435</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N16">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O16">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P16">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q16">
-        <v>0.331794511009</v>
+        <v>0.06736582105216668</v>
       </c>
       <c r="R16">
-        <v>1.327178044036</v>
+        <v>0.404194926313</v>
       </c>
       <c r="S16">
-        <v>0.001334688309558828</v>
+        <v>0.0002295416628301512</v>
       </c>
       <c r="T16">
-        <v>0.0006346393974778928</v>
+        <v>0.0001633478693464068</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.5720835</v>
+        <v>1.6540555</v>
       </c>
       <c r="H17">
-        <v>3.144167</v>
+        <v>3.308111</v>
       </c>
       <c r="I17">
-        <v>0.1893069871821773</v>
+        <v>0.1712762992154535</v>
       </c>
       <c r="J17">
-        <v>0.1347048477502636</v>
+        <v>0.1210979348516435</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N17">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O17">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P17">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q17">
-        <v>0.06337749824683334</v>
+        <v>0.97341248877775</v>
       </c>
       <c r="R17">
-        <v>0.3802649894810001</v>
+        <v>3.893649955111</v>
       </c>
       <c r="S17">
-        <v>0.0002549445611438673</v>
+        <v>0.003316796526841919</v>
       </c>
       <c r="T17">
-        <v>0.0001818378060808343</v>
+        <v>0.001573546283595837</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3676123333333334</v>
+        <v>0.8870146666666666</v>
       </c>
       <c r="H18">
-        <v>1.102837</v>
+        <v>2.661044</v>
       </c>
       <c r="I18">
-        <v>0.04426710367123859</v>
+        <v>0.09184975320144682</v>
       </c>
       <c r="J18">
-        <v>0.04724860040142825</v>
+        <v>0.097411160916111</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N18">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O18">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P18">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q18">
-        <v>0.01120960288033333</v>
+        <v>0.09506757092933334</v>
       </c>
       <c r="R18">
-        <v>0.100886425923</v>
+        <v>0.8556081383640001</v>
       </c>
       <c r="S18">
-        <v>4.50921441517519E-05</v>
+        <v>0.0003239323439024672</v>
       </c>
       <c r="T18">
-        <v>4.824258572479372E-05</v>
+        <v>0.0003457781315369022</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3676123333333334</v>
+        <v>0.8870146666666666</v>
       </c>
       <c r="H19">
-        <v>1.102837</v>
+        <v>2.661044</v>
       </c>
       <c r="I19">
-        <v>0.04426710367123859</v>
+        <v>0.09184975320144682</v>
       </c>
       <c r="J19">
-        <v>0.04724860040142825</v>
+        <v>0.097411160916111</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O19">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P19">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q19">
-        <v>10.90088767952244</v>
+        <v>26.30283691449155</v>
       </c>
       <c r="R19">
-        <v>98.107989115702</v>
+        <v>236.725532230424</v>
       </c>
       <c r="S19">
-        <v>0.04385029548990282</v>
+        <v>0.08962403824674367</v>
       </c>
       <c r="T19">
-        <v>0.0469139731326567</v>
+        <v>0.09566822538437741</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,55 +1647,55 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3676123333333334</v>
+        <v>0.8870146666666666</v>
       </c>
       <c r="H20">
-        <v>1.102837</v>
+        <v>2.661044</v>
       </c>
       <c r="I20">
-        <v>0.04426710367123859</v>
+        <v>0.09184975320144682</v>
       </c>
       <c r="J20">
-        <v>0.04724860040142825</v>
+        <v>0.097411160916111</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N20">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O20">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P20">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q20">
-        <v>0.07758605339933333</v>
+        <v>0.03612603767244445</v>
       </c>
       <c r="R20">
-        <v>0.465516320396</v>
+        <v>0.325134339052</v>
       </c>
       <c r="S20">
-        <v>0.0003121003965435952</v>
+        <v>0.0001230955197944682</v>
       </c>
       <c r="T20">
-        <v>0.0002226038913315758</v>
+        <v>0.0001313970019860397</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,55 +1709,55 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3676123333333334</v>
+        <v>0.8870146666666666</v>
       </c>
       <c r="H21">
-        <v>1.102837</v>
+        <v>2.661044</v>
       </c>
       <c r="I21">
-        <v>0.04426710367123859</v>
+        <v>0.09184975320144682</v>
       </c>
       <c r="J21">
-        <v>0.04724860040142825</v>
+        <v>0.097411160916111</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N21">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O21">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P21">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q21">
-        <v>0.01482004614344445</v>
+        <v>0.5220085748406667</v>
       </c>
       <c r="R21">
-        <v>0.133380415291</v>
+        <v>3.132051449044</v>
       </c>
       <c r="S21">
-        <v>5.961564064042383E-05</v>
+        <v>0.001778687091006222</v>
       </c>
       <c r="T21">
-        <v>6.378079171518849E-05</v>
+        <v>0.00126576039821064</v>
       </c>
     </row>
   </sheetData>
